--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/31012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/31012026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sábado, 31 de enero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Marcos
-Marcos 4, 35-41 Un día, al atardecer, Jesús dijo a sus discípulos: “Vamos a la otra orilla del lago”. Entonces los discípulos despidieron a la gente y condujeron a Jesús en la misma barca en que estaba. Iban además otras barcas. De pronto se desató un fuerte viento y las olas se estrellaban contra la barca y la iban llenando de agua. Jesús dormía en la popa, reclinado sobre un cojín. Lo despertaron y le dijeron: “Maestro, ¿no te importa que nos hundamos?” Él se despertó, reprendió al viento y dijo al mar: “¡Cállate, enmudece!” Entonces el viento cesó y sobrevino una gran calma. Jesús les dijo: “¿Por qué tenían tanto miedo? ¿Aún no tienen fe?” Todos se quedaron espantados y se decían unos a otros: “¿Quién es éste, a quien hasta el viento y el mar obedecen?”
-*Oración de la mañana*
-Querido Jesús, en este nuevo amanecer, recuerdo tu poder sobre las tormentas de la vida. En medio de las tempestades, te pido que me des la paz que trasciende todo entendimiento. Ayúdame a recordar que no importa cuán feroz sea el viento o cuán grandes sean las olas, estás conmigo, siempre dispuesto a calmar la tempestad.
-Amado Padre, gracias por regalarme un nuevo día. Gracias porque, en cada amanecer, me recuerdas que tu amor y misericordia se renuevan constantemente. Permíteme hoy, y siempre, confiar en tu omnipotencia, la misma que calma los vientos y marea, y tener la fe necesaria para abandonarme en tus manos.
-Espíritu Santo, guía de mi vida, te pido que me otorgues la sabiduría para reconocer las tormentas que son necesarias para mi crecimiento y la fe para mantener mi barca en curso. Que cada desafío sea una oportunidad para fortalecer mi fe y mi confianza en la Trinidad Santa.
-Por todo esto te lo pido, en nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,447 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>sábado, 31 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 4, 35-41 Un día, al atardecer, Jesús dijo a sus discípulos: “Vamos a la otra orilla del lago”. Entonces los discípulos despidieron a la gente y condujeron a Jesús en la misma barca en que estaba. Iban además otras barcas. De pronto se desató un fuerte viento y las olas se estrellaban contra la barca y la iban llenando de agua. Jesús dormía en la popa, reclinado sobre un cojín. Lo despertaron y le dijeron: “Maestro, ¿no te importa que nos hundamos?” Él se despertó, reprendió al viento y dijo al mar: “¡Cállate, enmudece!” Entonces el viento cesó y sobrevino una gran calma. Jesús les dijo: “¿Por qué tenían tanto miedo? ¿Aún no tienen fe?” Todos se quedaron espantados y se decían unos a otros: “¿Quién es éste, a quien hasta el viento y el mar obedecen?”
+*Oración de la mañana*
+Querido Jesús, en este nuevo amanecer, recuerdo tu poder sobre las tormentas de la vida. En medio de las tempestades, te pido que me des la paz que trasciende todo entendimiento. Ayúdame a recordar que no importa cuán feroz sea el viento o cuán grandes sean las olas, estás conmigo, siempre dispuesto a calmar la tempestad.
+Amado Padre, gracias por regalarme un nuevo día. Gracias porque, en cada amanecer, me recuerdas que tu amor y misericordia se renuevan constantemente. Permíteme hoy, y siempre, confiar en tu omnipotencia, la misma que calma los vientos y marea, y tener la fe necesaria para abandonarme en tus manos.
+Espíritu Santo, guía de mi vida, te pido que me otorgues la sabiduría para reconocer las tormentas que son necesarias para mi crecimiento y la fe para mantener mi barca en curso. Que cada desafío sea una oportunidad para fortalecer mi fe y mi confianza en la Trinidad Santa.
+Por todo esto te lo pido, en nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>sábado, 31 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 4, 35-41 Un día, al atardecer, Jesús dijo a sus discípulos: “Vamos a la otra orilla del lago”. Entonces los discípulos despidieron a la gente y condujeron a Jesús en la misma barca en que estaba. Iban además otras barcas. De pronto se desató un fuerte viento y las olas se estrellaban contra la barca y la iban llenando de agua. Jesús dormía en la popa, reclinado sobre un cojín. Lo despertaron y le dijeron: “Maestro, ¿no te importa que nos hundamos?” Él se despertó, reprendió al viento y dijo al mar: “¡Cállate, enmudece!” Entonces el viento cesó y sobrevino una gran calma. Jesús les dijo: “¿Por qué tenían tanto miedo? ¿Aún no tienen fe?” Todos se quedaron espantados y se decían unos a otros: “¿Quién es éste, a quien hasta el viento y el mar obedecen?”
+*Oración de la mañana*
+Querido Jesús, en este nuevo amanecer, recuerdo tu poder sobre las tormentas de la vida. En medio de las tempestades, te pido que me des la paz que trasciende todo entendimiento. Ayúdame a recordar que no importa cuán feroz sea el viento o cuán grandes sean las olas, estás conmigo, siempre dispuesto a calmar la tempestad.
+Amado Padre, gracias por regalarme un nuevo día. Gracias porque, en cada amanecer, me recuerdas que tu amor y misericordia se renuevan constantemente. Permíteme hoy, y siempre, confiar en tu omnipotencia, la misma que calma los vientos y marea, y tener la fe necesaria para abandonarme en tus manos.
+Espíritu Santo, guía de mi vida, te pido que me otorgues la sabiduría para reconocer las tormentas que son necesarias para mi crecimiento y la fe para mantener mi barca en curso. Que cada desafío sea una oportunidad para fortalecer mi fe y mi confianza en la Trinidad Santa.
+Por todo esto te lo pido, en nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>sábado, 31 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 4, 35-41 Un día, al atardecer, Jesús dijo a sus discípulos: “Vamos a la otra orilla del lago”. Entonces los discípulos despidieron a la gente y condujeron a Jesús en la misma barca en que estaba. Iban además otras barcas. De pronto se desató un fuerte viento y las olas se estrellaban contra la barca y la iban llenando de agua. Jesús dormía en la popa, reclinado sobre un cojín. Lo despertaron y le dijeron: “Maestro, ¿no te importa que nos hundamos?” Él se despertó, reprendió al viento y dijo al mar: “¡Cállate, enmudece!” Entonces el viento cesó y sobrevino una gran calma. Jesús les dijo: “¿Por qué tenían tanto miedo? ¿Aún no tienen fe?” Todos se quedaron espantados y se decían unos a otros: “¿Quién es éste, a quien hasta el viento y el mar obedecen?”
+*Oración de la mañana*
+Querido Jesús, en este nuevo amanecer, recuerdo tu poder sobre las tormentas de la vida. En medio de las tempestades, te pido que me des la paz que trasciende todo entendimiento. Ayúdame a recordar que no importa cuán feroz sea el viento o cuán grandes sean las olas, estás conmigo, siempre dispuesto a calmar la tempestad.
+Amado Padre, gracias por regalarme un nuevo día. Gracias porque, en cada amanecer, me recuerdas que tu amor y misericordia se renuevan constantemente. Permíteme hoy, y siempre, confiar en tu omnipotencia, la misma que calma los vientos y marea, y tener la fe necesaria para abandonarme en tus manos.
+Espíritu Santo, guía de mi vida, te pido que me otorgues la sabiduría para reconocer las tormentas que son necesarias para mi crecimiento y la fe para mantener mi barca en curso. Que cada desafío sea una oportunidad para fortalecer mi fe y mi confianza en la Trinidad Santa.
+Por todo esto te lo pido, en nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>sábado, 31 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 4, 35-41 Un día, al atardecer, Jesús dijo a sus discípulos: “Vamos a la otra orilla del lago”. Entonces los discípulos despidieron a la gente y condujeron a Jesús en la misma barca en que estaba. Iban además otras barcas. De pronto se desató un fuerte viento y las olas se estrellaban contra la barca y la iban llenando de agua. Jesús dormía en la popa, reclinado sobre un cojín. Lo despertaron y le dijeron: “Maestro, ¿no te importa que nos hundamos?” Él se despertó, reprendió al viento y dijo al mar: “¡Cállate, enmudece!” Entonces el viento cesó y sobrevino una gran calma. Jesús les dijo: “¿Por qué tenían tanto miedo? ¿Aún no tienen fe?” Todos se quedaron espantados y se decían unos a otros: “¿Quién es éste, a quien hasta el viento y el mar obedecen?”
+*Oración de la mañana*
+Querido Jesús, en este nuevo amanecer, recuerdo tu poder sobre las tormentas de la vida. En medio de las tempestades, te pido que me des la paz que trasciende todo entendimiento. Ayúdame a recordar que no importa cuán feroz sea el viento o cuán grandes sean las olas, estás conmigo, siempre dispuesto a calmar la tempestad.
+Amado Padre, gracias por regalarme un nuevo día. Gracias porque, en cada amanecer, me recuerdas que tu amor y misericordia se renuevan constantemente. Permíteme hoy, y siempre, confiar en tu omnipotencia, la misma que calma los vientos y marea, y tener la fe necesaria para abandonarme en tus manos.
+Espíritu Santo, guía de mi vida, te pido que me otorgues la sabiduría para reconocer las tormentas que son necesarias para mi crecimiento y la fe para mantener mi barca en curso. Que cada desafío sea una oportunidad para fortalecer mi fe y mi confianza en la Trinidad Santa.
+Por todo esto te lo pido, en nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>sábado, 31 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 4, 35-41 Un día, al atardecer, Jesús dijo a sus discípulos: “Vamos a la otra orilla del lago”. Entonces los discípulos despidieron a la gente y condujeron a Jesús en la misma barca en que estaba. Iban además otras barcas. De pronto se desató un fuerte viento y las olas se estrellaban contra la barca y la iban llenando de agua. Jesús dormía en la popa, reclinado sobre un cojín. Lo despertaron y le dijeron: “Maestro, ¿no te importa que nos hundamos?” Él se despertó, reprendió al viento y dijo al mar: “¡Cállate, enmudece!” Entonces el viento cesó y sobrevino una gran calma. Jesús les dijo: “¿Por qué tenían tanto miedo? ¿Aún no tienen fe?” Todos se quedaron espantados y se decían unos a otros: “¿Quién es éste, a quien hasta el viento y el mar obedecen?”
+*Oración de la mañana*
+Querido Jesús, en este nuevo amanecer, recuerdo tu poder sobre las tormentas de la vida. En medio de las tempestades, te pido que me des la paz que trasciende todo entendimiento. Ayúdame a recordar que no importa cuán feroz sea el viento o cuán grandes sean las olas, estás conmigo, siempre dispuesto a calmar la tempestad.
+Amado Padre, gracias por regalarme un nuevo día. Gracias porque, en cada amanecer, me recuerdas que tu amor y misericordia se renuevan constantemente. Permíteme hoy, y siempre, confiar en tu omnipotencia, la misma que calma los vientos y marea, y tener la fe necesaria para abandonarme en tus manos.
+Espíritu Santo, guía de mi vida, te pido que me otorgues la sabiduría para reconocer las tormentas que son necesarias para mi crecimiento y la fe para mantener mi barca en curso. Que cada desafío sea una oportunidad para fortalecer mi fe y mi confianza en la Trinidad Santa.
+Por todo esto te lo pido, en nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>sábado, 31 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 4, 35-41 Un día, al atardecer, Jesús dijo a sus discípulos: “Vamos a la otra orilla del lago”. Entonces los discípulos despidieron a la gente y condujeron a Jesús en la misma barca en que estaba. Iban además otras barcas. De pronto se desató un fuerte viento y las olas se estrellaban contra la barca y la iban llenando de agua. Jesús dormía en la popa, reclinado sobre un cojín. Lo despertaron y le dijeron: “Maestro, ¿no te importa que nos hundamos?” Él se despertó, reprendió al viento y dijo al mar: “¡Cállate, enmudece!” Entonces el viento cesó y sobrevino una gran calma. Jesús les dijo: “¿Por qué tenían tanto miedo? ¿Aún no tienen fe?” Todos se quedaron espantados y se decían unos a otros: “¿Quién es éste, a quien hasta el viento y el mar obedecen?”
+*Oración de la mañana*
+Querido Jesús, en este nuevo amanecer, recuerdo tu poder sobre las tormentas de la vida. En medio de las tempestades, te pido que me des la paz que trasciende todo entendimiento. Ayúdame a recordar que no importa cuán feroz sea el viento o cuán grandes sean las olas, estás conmigo, siempre dispuesto a calmar la tempestad.
+Amado Padre, gracias por regalarme un nuevo día. Gracias porque, en cada amanecer, me recuerdas que tu amor y misericordia se renuevan constantemente. Permíteme hoy, y siempre, confiar en tu omnipotencia, la misma que calma los vientos y marea, y tener la fe necesaria para abandonarme en tus manos.
+Espíritu Santo, guía de mi vida, te pido que me otorgues la sabiduría para reconocer las tormentas que son necesarias para mi crecimiento y la fe para mantener mi barca en curso. Que cada desafío sea una oportunidad para fortalecer mi fe y mi confianza en la Trinidad Santa.
+Por todo esto te lo pido, en nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>sábado, 31 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 4, 35-41 Un día, al atardecer, Jesús dijo a sus discípulos: “Vamos a la otra orilla del lago”. Entonces los discípulos despidieron a la gente y condujeron a Jesús en la misma barca en que estaba. Iban además otras barcas. De pronto se desató un fuerte viento y las olas se estrellaban contra la barca y la iban llenando de agua. Jesús dormía en la popa, reclinado sobre un cojín. Lo despertaron y le dijeron: “Maestro, ¿no te importa que nos hundamos?” Él se despertó, reprendió al viento y dijo al mar: “¡Cállate, enmudece!” Entonces el viento cesó y sobrevino una gran calma. Jesús les dijo: “¿Por qué tenían tanto miedo? ¿Aún no tienen fe?” Todos se quedaron espantados y se decían unos a otros: “¿Quién es éste, a quien hasta el viento y el mar obedecen?”
+*Oración de la mañana*
+Querido Jesús, en este nuevo amanecer, recuerdo tu poder sobre las tormentas de la vida. En medio de las tempestades, te pido que me des la paz que trasciende todo entendimiento. Ayúdame a recordar que no importa cuán feroz sea el viento o cuán grandes sean las olas, estás conmigo, siempre dispuesto a calmar la tempestad.
+Amado Padre, gracias por regalarme un nuevo día. Gracias porque, en cada amanecer, me recuerdas que tu amor y misericordia se renuevan constantemente. Permíteme hoy, y siempre, confiar en tu omnipotencia, la misma que calma los vientos y marea, y tener la fe necesaria para abandonarme en tus manos.
+Espíritu Santo, guía de mi vida, te pido que me otorgues la sabiduría para reconocer las tormentas que son necesarias para mi crecimiento y la fe para mantener mi barca en curso. Que cada desafío sea una oportunidad para fortalecer mi fe y mi confianza en la Trinidad Santa.
+Por todo esto te lo pido, en nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>sábado, 31 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 4, 35-41 Un día, al atardecer, Jesús dijo a sus discípulos: “Vamos a la otra orilla del lago”. Entonces los discípulos despidieron a la gente y condujeron a Jesús en la misma barca en que estaba. Iban además otras barcas. De pronto se desató un fuerte viento y las olas se estrellaban contra la barca y la iban llenando de agua. Jesús dormía en la popa, reclinado sobre un cojín. Lo despertaron y le dijeron: “Maestro, ¿no te importa que nos hundamos?” Él se despertó, reprendió al viento y dijo al mar: “¡Cállate, enmudece!” Entonces el viento cesó y sobrevino una gran calma. Jesús les dijo: “¿Por qué tenían tanto miedo? ¿Aún no tienen fe?” Todos se quedaron espantados y se decían unos a otros: “¿Quién es éste, a quien hasta el viento y el mar obedecen?”
+*Oración de la mañana*
+Querido Jesús, en este nuevo amanecer, recuerdo tu poder sobre las tormentas de la vida. En medio de las tempestades, te pido que me des la paz que trasciende todo entendimiento. Ayúdame a recordar que no importa cuán feroz sea el viento o cuán grandes sean las olas, estás conmigo, siempre dispuesto a calmar la tempestad.
+Amado Padre, gracias por regalarme un nuevo día. Gracias porque, en cada amanecer, me recuerdas que tu amor y misericordia se renuevan constantemente. Permíteme hoy, y siempre, confiar en tu omnipotencia, la misma que calma los vientos y marea, y tener la fe necesaria para abandonarme en tus manos.
+Espíritu Santo, guía de mi vida, te pido que me otorgues la sabiduría para reconocer las tormentas que son necesarias para mi crecimiento y la fe para mantener mi barca en curso. Que cada desafío sea una oportunidad para fortalecer mi fe y mi confianza en la Trinidad Santa.
+Por todo esto te lo pido, en nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/31012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/31012026.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,8 +529,6 @@
           <t>Alejandro</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>56994148421</t>
@@ -574,8 +572,6 @@
           <t>Omar</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>56973223070</t>
@@ -619,8 +615,6 @@
           <t>Mama</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>56971748545</t>
@@ -664,8 +658,6 @@
           <t>Victor</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>56931123918</t>
@@ -709,8 +701,6 @@
           <t>Yume</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>584146711206</t>
@@ -759,7 +749,6 @@
           <t>González</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>56972028078</t>
@@ -808,7 +797,6 @@
           <t>LUCES</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>34672527995</t>
@@ -857,7 +845,6 @@
           <t>Gonzalez</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>56967970252</t>
@@ -895,6 +882,55 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>sábado, 31 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 4, 35-41 Un día, al atardecer, Jesús dijo a sus discípulos: “Vamos a la otra orilla del lago”. Entonces los discípulos despidieron a la gente y condujeron a Jesús en la misma barca en que estaba. Iban además otras barcas. De pronto se desató un fuerte viento y las olas se estrellaban contra la barca y la iban llenando de agua. Jesús dormía en la popa, reclinado sobre un cojín. Lo despertaron y le dijeron: “Maestro, ¿no te importa que nos hundamos?” Él se despertó, reprendió al viento y dijo al mar: “¡Cállate, enmudece!” Entonces el viento cesó y sobrevino una gran calma. Jesús les dijo: “¿Por qué tenían tanto miedo? ¿Aún no tienen fe?” Todos se quedaron espantados y se decían unos a otros: “¿Quién es éste, a quien hasta el viento y el mar obedecen?”
+*Oración de la mañana*
+Querido Jesús, en este nuevo amanecer, recuerdo tu poder sobre las tormentas de la vida. En medio de las tempestades, te pido que me des la paz que trasciende todo entendimiento. Ayúdame a recordar que no importa cuán feroz sea el viento o cuán grandes sean las olas, estás conmigo, siempre dispuesto a calmar la tempestad.
+Amado Padre, gracias por regalarme un nuevo día. Gracias porque, en cada amanecer, me recuerdas que tu amor y misericordia se renuevan constantemente. Permíteme hoy, y siempre, confiar en tu omnipotencia, la misma que calma los vientos y marea, y tener la fe necesaria para abandonarme en tus manos.
+Espíritu Santo, guía de mi vida, te pido que me otorgues la sabiduría para reconocer las tormentas que son necesarias para mi crecimiento y la fe para mantener mi barca en curso. Que cada desafío sea una oportunidad para fortalecer mi fe y mi confianza en la Trinidad Santa.
+Por todo esto te lo pido, en nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
